--- a/TipoCambio2021-2025.xlsx
+++ b/TipoCambio2021-2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felijandro/Documents/Universidad/11vo Semestre/Ingeniería Financiera/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05AF2E9D-F75D-1D49-9F68-10F3161D3616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457C7DC4-1A97-994B-BD05-AC8A796341A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="1080" windowWidth="27640" windowHeight="15820" xr2:uid="{19C0557D-6E7D-C14A-AF6D-9FA87597F62C}"/>
+    <workbookView xWindow="1160" yWindow="1000" windowWidth="27640" windowHeight="15820" xr2:uid="{19C0557D-6E7D-C14A-AF6D-9FA87597F62C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,13 +38,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="3">
   <si>
-    <t>Dia</t>
-  </si>
-  <si>
     <t>Valor</t>
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Fecha</t>
   </si>
 </sst>
 </file>
@@ -493,18 +493,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7352E37-9616-694A-9DA3-D60B52C09EAF}">
   <dimension ref="A1:B1462"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -520,7 +518,7 @@
         <v>44471</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -528,7 +526,7 @@
         <v>44472</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -576,7 +574,7 @@
         <v>44478</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -584,7 +582,7 @@
         <v>44479</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -592,7 +590,7 @@
         <v>44480</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -632,7 +630,7 @@
         <v>44485</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -640,7 +638,7 @@
         <v>44486</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -688,7 +686,7 @@
         <v>44492</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -696,7 +694,7 @@
         <v>44493</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -744,7 +742,7 @@
         <v>44499</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -752,7 +750,7 @@
         <v>44500</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -760,7 +758,7 @@
         <v>44501</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -800,7 +798,7 @@
         <v>44506</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -808,7 +806,7 @@
         <v>44507</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -856,7 +854,7 @@
         <v>44513</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -864,7 +862,7 @@
         <v>44514</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -912,7 +910,7 @@
         <v>44520</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -920,7 +918,7 @@
         <v>44521</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -968,7 +966,7 @@
         <v>44527</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -976,7 +974,7 @@
         <v>44528</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1024,7 +1022,7 @@
         <v>44534</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1032,7 +1030,7 @@
         <v>44535</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -1056,7 +1054,7 @@
         <v>44538</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -1080,7 +1078,7 @@
         <v>44541</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1088,7 +1086,7 @@
         <v>44542</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1136,7 +1134,7 @@
         <v>44548</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -1144,7 +1142,7 @@
         <v>44549</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -1192,7 +1190,7 @@
         <v>44555</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -1200,7 +1198,7 @@
         <v>44556</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -1295,7 +1293,7 @@
         <v>44569</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -1303,7 +1301,7 @@
         <v>44570</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -1351,7 +1349,7 @@
         <v>44576</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1359,7 +1357,7 @@
         <v>44577</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -1407,7 +1405,7 @@
         <v>44583</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -1415,7 +1413,7 @@
         <v>44584</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -1463,7 +1461,7 @@
         <v>44590</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -1471,7 +1469,7 @@
         <v>44591</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -1519,7 +1517,7 @@
         <v>44597</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -1527,7 +1525,7 @@
         <v>44598</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -1575,7 +1573,7 @@
         <v>44604</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -1583,7 +1581,7 @@
         <v>44605</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -1631,7 +1629,7 @@
         <v>44611</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -1639,7 +1637,7 @@
         <v>44612</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -1687,7 +1685,7 @@
         <v>44618</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -1695,7 +1693,7 @@
         <v>44619</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -1743,7 +1741,7 @@
         <v>44625</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -1751,7 +1749,7 @@
         <v>44626</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -1799,7 +1797,7 @@
         <v>44632</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -1807,7 +1805,7 @@
         <v>44633</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -1855,7 +1853,7 @@
         <v>44639</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -1863,7 +1861,7 @@
         <v>44640</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -1911,7 +1909,7 @@
         <v>44646</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -1919,7 +1917,7 @@
         <v>44647</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -1967,7 +1965,7 @@
         <v>44653</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -1975,7 +1973,7 @@
         <v>44654</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -2023,7 +2021,7 @@
         <v>44660</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -2031,7 +2029,7 @@
         <v>44661</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -2071,7 +2069,7 @@
         <v>44666</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -2079,7 +2077,7 @@
         <v>44667</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -2087,7 +2085,7 @@
         <v>44668</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -2135,7 +2133,7 @@
         <v>44674</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -2143,7 +2141,7 @@
         <v>44675</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -2191,7 +2189,7 @@
         <v>44681</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -2199,7 +2197,7 @@
         <v>44682</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -2247,7 +2245,7 @@
         <v>44688</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -2255,7 +2253,7 @@
         <v>44689</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -2303,7 +2301,7 @@
         <v>44695</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -2311,7 +2309,7 @@
         <v>44696</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -2359,7 +2357,7 @@
         <v>44702</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -2367,7 +2365,7 @@
         <v>44703</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -2415,7 +2413,7 @@
         <v>44709</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -2423,7 +2421,7 @@
         <v>44710</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -2471,7 +2469,7 @@
         <v>44716</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -2479,7 +2477,7 @@
         <v>44717</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -2527,7 +2525,7 @@
         <v>44723</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -2535,7 +2533,7 @@
         <v>44724</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -2583,7 +2581,7 @@
         <v>44730</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -2591,7 +2589,7 @@
         <v>44731</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -2607,7 +2605,7 @@
         <v>44733</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -2639,7 +2637,7 @@
         <v>44737</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -2647,7 +2645,7 @@
         <v>44738</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -2655,7 +2653,7 @@
         <v>44739</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -2695,7 +2693,7 @@
         <v>44744</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
@@ -2703,7 +2701,7 @@
         <v>44745</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
@@ -2751,7 +2749,7 @@
         <v>44751</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
@@ -2759,7 +2757,7 @@
         <v>44752</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
@@ -2807,7 +2805,7 @@
         <v>44758</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
@@ -2815,7 +2813,7 @@
         <v>44759</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
@@ -2863,7 +2861,7 @@
         <v>44765</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
@@ -2871,7 +2869,7 @@
         <v>44766</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
@@ -2919,7 +2917,7 @@
         <v>44772</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
@@ -2927,7 +2925,7 @@
         <v>44773</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
@@ -2975,7 +2973,7 @@
         <v>44779</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
@@ -2983,7 +2981,7 @@
         <v>44780</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
@@ -3031,7 +3029,7 @@
         <v>44786</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
@@ -3039,7 +3037,7 @@
         <v>44787</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
@@ -3047,7 +3045,7 @@
         <v>44788</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
@@ -3087,7 +3085,7 @@
         <v>44793</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
@@ -3095,7 +3093,7 @@
         <v>44794</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
@@ -3143,7 +3141,7 @@
         <v>44800</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
@@ -3151,7 +3149,7 @@
         <v>44801</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
@@ -3199,7 +3197,7 @@
         <v>44807</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
@@ -3207,7 +3205,7 @@
         <v>44808</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
@@ -3255,7 +3253,7 @@
         <v>44814</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
@@ -3263,7 +3261,7 @@
         <v>44815</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
@@ -3303,7 +3301,7 @@
         <v>44820</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
@@ -3311,7 +3309,7 @@
         <v>44821</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
@@ -3319,7 +3317,7 @@
         <v>44822</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
@@ -3327,7 +3325,7 @@
         <v>44823</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
@@ -3367,7 +3365,7 @@
         <v>44828</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
@@ -3375,7 +3373,7 @@
         <v>44829</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
@@ -3423,7 +3421,7 @@
         <v>44835</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
@@ -3431,7 +3429,7 @@
         <v>44836</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
@@ -3479,7 +3477,7 @@
         <v>44842</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
@@ -3487,7 +3485,7 @@
         <v>44843</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
@@ -3495,7 +3493,7 @@
         <v>44844</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
@@ -3535,7 +3533,7 @@
         <v>44849</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
@@ -3543,7 +3541,7 @@
         <v>44850</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
@@ -3591,7 +3589,7 @@
         <v>44856</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
@@ -3599,7 +3597,7 @@
         <v>44857</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
@@ -3647,7 +3645,7 @@
         <v>44863</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
@@ -3655,7 +3653,7 @@
         <v>44864</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
@@ -3663,7 +3661,7 @@
         <v>44865</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
@@ -3671,7 +3669,7 @@
         <v>44866</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
@@ -3703,7 +3701,7 @@
         <v>44870</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
@@ -3711,7 +3709,7 @@
         <v>44871</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
@@ -3759,7 +3757,7 @@
         <v>44877</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
@@ -3767,7 +3765,7 @@
         <v>44878</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
@@ -3815,7 +3813,7 @@
         <v>44884</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
@@ -3823,7 +3821,7 @@
         <v>44885</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
@@ -3871,7 +3869,7 @@
         <v>44891</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
@@ -3879,7 +3877,7 @@
         <v>44892</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
@@ -3927,7 +3925,7 @@
         <v>44898</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
@@ -3935,7 +3933,7 @@
         <v>44899</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
@@ -3967,7 +3965,7 @@
         <v>44903</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
@@ -3983,7 +3981,7 @@
         <v>44905</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
@@ -3991,7 +3989,7 @@
         <v>44906</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
@@ -4039,7 +4037,7 @@
         <v>44912</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
@@ -4047,7 +4045,7 @@
         <v>44913</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
@@ -4095,7 +4093,7 @@
         <v>44919</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
@@ -4103,7 +4101,7 @@
         <v>44920</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
@@ -4198,7 +4196,7 @@
         <v>44933</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
@@ -4206,7 +4204,7 @@
         <v>44934</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
@@ -4254,7 +4252,7 @@
         <v>44940</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
@@ -4262,7 +4260,7 @@
         <v>44941</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
@@ -4310,7 +4308,7 @@
         <v>44947</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
@@ -4318,7 +4316,7 @@
         <v>44948</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
@@ -4366,7 +4364,7 @@
         <v>44954</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
@@ -4374,7 +4372,7 @@
         <v>44955</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
@@ -4422,7 +4420,7 @@
         <v>44961</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
@@ -4430,7 +4428,7 @@
         <v>44962</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
@@ -4478,7 +4476,7 @@
         <v>44968</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
@@ -4486,7 +4484,7 @@
         <v>44969</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
@@ -4534,7 +4532,7 @@
         <v>44975</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
@@ -4542,7 +4540,7 @@
         <v>44976</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
@@ -4590,7 +4588,7 @@
         <v>44982</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
@@ -4598,7 +4596,7 @@
         <v>44983</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
@@ -4646,7 +4644,7 @@
         <v>44989</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
@@ -4654,7 +4652,7 @@
         <v>44990</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
@@ -4702,7 +4700,7 @@
         <v>44996</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
@@ -4710,7 +4708,7 @@
         <v>44997</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
@@ -4758,7 +4756,7 @@
         <v>45003</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
@@ -4766,7 +4764,7 @@
         <v>45004</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
@@ -4814,7 +4812,7 @@
         <v>45010</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
@@ -4822,7 +4820,7 @@
         <v>45011</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
@@ -4870,7 +4868,7 @@
         <v>45017</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
@@ -4878,7 +4876,7 @@
         <v>45018</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
@@ -4918,7 +4916,7 @@
         <v>45023</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
@@ -4926,7 +4924,7 @@
         <v>45024</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
@@ -4934,7 +4932,7 @@
         <v>45025</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
@@ -4982,7 +4980,7 @@
         <v>45031</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
@@ -4990,7 +4988,7 @@
         <v>45032</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
@@ -5038,7 +5036,7 @@
         <v>45038</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
@@ -5046,7 +5044,7 @@
         <v>45039</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
@@ -5094,7 +5092,7 @@
         <v>45045</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
@@ -5102,7 +5100,7 @@
         <v>45046</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
@@ -5110,7 +5108,7 @@
         <v>45047</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
@@ -5150,7 +5148,7 @@
         <v>45052</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
@@ -5158,7 +5156,7 @@
         <v>45053</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
@@ -5206,7 +5204,7 @@
         <v>45059</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
@@ -5214,7 +5212,7 @@
         <v>45060</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
@@ -5262,7 +5260,7 @@
         <v>45066</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
@@ -5270,7 +5268,7 @@
         <v>45067</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
@@ -5318,7 +5316,7 @@
         <v>45073</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
@@ -5326,7 +5324,7 @@
         <v>45074</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
@@ -5374,7 +5372,7 @@
         <v>45080</v>
       </c>
       <c r="B612" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
@@ -5382,7 +5380,7 @@
         <v>45081</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
@@ -5430,7 +5428,7 @@
         <v>45087</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
@@ -5438,7 +5436,7 @@
         <v>45088</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.2">
@@ -5486,7 +5484,7 @@
         <v>45094</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
@@ -5494,7 +5492,7 @@
         <v>45095</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
@@ -5518,7 +5516,7 @@
         <v>45098</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
@@ -5542,7 +5540,7 @@
         <v>45101</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
@@ -5550,7 +5548,7 @@
         <v>45102</v>
       </c>
       <c r="B634" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
@@ -5558,7 +5556,7 @@
         <v>45103</v>
       </c>
       <c r="B635" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
@@ -5598,7 +5596,7 @@
         <v>45108</v>
       </c>
       <c r="B640" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
@@ -5606,7 +5604,7 @@
         <v>45109</v>
       </c>
       <c r="B641" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
@@ -5654,7 +5652,7 @@
         <v>45115</v>
       </c>
       <c r="B647" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
@@ -5662,7 +5660,7 @@
         <v>45116</v>
       </c>
       <c r="B648" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
@@ -5710,7 +5708,7 @@
         <v>45122</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
@@ -5718,7 +5716,7 @@
         <v>45123</v>
       </c>
       <c r="B655" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
@@ -5766,7 +5764,7 @@
         <v>45129</v>
       </c>
       <c r="B661" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
@@ -5774,7 +5772,7 @@
         <v>45130</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
@@ -5822,7 +5820,7 @@
         <v>45136</v>
       </c>
       <c r="B668" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
@@ -5830,7 +5828,7 @@
         <v>45137</v>
       </c>
       <c r="B669" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
@@ -5878,7 +5876,7 @@
         <v>45143</v>
       </c>
       <c r="B675" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
@@ -5886,7 +5884,7 @@
         <v>45144</v>
       </c>
       <c r="B676" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
@@ -5934,7 +5932,7 @@
         <v>45150</v>
       </c>
       <c r="B682" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
@@ -5942,7 +5940,7 @@
         <v>45151</v>
       </c>
       <c r="B683" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
@@ -5958,7 +5956,7 @@
         <v>45153</v>
       </c>
       <c r="B685" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
@@ -5990,7 +5988,7 @@
         <v>45157</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
@@ -5998,7 +5996,7 @@
         <v>45158</v>
       </c>
       <c r="B690" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
@@ -6046,7 +6044,7 @@
         <v>45164</v>
       </c>
       <c r="B696" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
@@ -6054,7 +6052,7 @@
         <v>45165</v>
       </c>
       <c r="B697" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
@@ -6102,7 +6100,7 @@
         <v>45171</v>
       </c>
       <c r="B703" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
@@ -6110,7 +6108,7 @@
         <v>45172</v>
       </c>
       <c r="B704" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
@@ -6158,7 +6156,7 @@
         <v>45178</v>
       </c>
       <c r="B710" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
@@ -6166,7 +6164,7 @@
         <v>45179</v>
       </c>
       <c r="B711" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
@@ -6214,7 +6212,7 @@
         <v>45185</v>
       </c>
       <c r="B717" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
@@ -6222,7 +6220,7 @@
         <v>45186</v>
       </c>
       <c r="B718" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
@@ -6230,7 +6228,7 @@
         <v>45187</v>
       </c>
       <c r="B719" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
@@ -6238,7 +6236,7 @@
         <v>45188</v>
       </c>
       <c r="B720" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
@@ -6270,7 +6268,7 @@
         <v>45192</v>
       </c>
       <c r="B724" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
@@ -6278,7 +6276,7 @@
         <v>45193</v>
       </c>
       <c r="B725" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
@@ -6326,7 +6324,7 @@
         <v>45199</v>
       </c>
       <c r="B731" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
@@ -6334,7 +6332,7 @@
         <v>45200</v>
       </c>
       <c r="B732" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
@@ -6382,7 +6380,7 @@
         <v>45206</v>
       </c>
       <c r="B738" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
@@ -6390,7 +6388,7 @@
         <v>45207</v>
       </c>
       <c r="B739" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.2">
@@ -6398,7 +6396,7 @@
         <v>45208</v>
       </c>
       <c r="B740" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
@@ -6438,7 +6436,7 @@
         <v>45213</v>
       </c>
       <c r="B745" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.2">
@@ -6446,7 +6444,7 @@
         <v>45214</v>
       </c>
       <c r="B746" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.2">
@@ -6494,7 +6492,7 @@
         <v>45220</v>
       </c>
       <c r="B752" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
@@ -6502,7 +6500,7 @@
         <v>45221</v>
       </c>
       <c r="B753" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
@@ -6542,7 +6540,7 @@
         <v>45226</v>
       </c>
       <c r="B758" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
@@ -6550,7 +6548,7 @@
         <v>45227</v>
       </c>
       <c r="B759" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.2">
@@ -6558,7 +6556,7 @@
         <v>45228</v>
       </c>
       <c r="B760" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.2">
@@ -6582,7 +6580,7 @@
         <v>45231</v>
       </c>
       <c r="B763" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.2">
@@ -6606,7 +6604,7 @@
         <v>45234</v>
       </c>
       <c r="B766" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.2">
@@ -6614,7 +6612,7 @@
         <v>45235</v>
       </c>
       <c r="B767" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.2">
@@ -6662,7 +6660,7 @@
         <v>45241</v>
       </c>
       <c r="B773" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.2">
@@ -6670,7 +6668,7 @@
         <v>45242</v>
       </c>
       <c r="B774" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.2">
@@ -6718,7 +6716,7 @@
         <v>45248</v>
       </c>
       <c r="B780" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.2">
@@ -6726,7 +6724,7 @@
         <v>45249</v>
       </c>
       <c r="B781" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.2">
@@ -6774,7 +6772,7 @@
         <v>45255</v>
       </c>
       <c r="B787" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.2">
@@ -6782,7 +6780,7 @@
         <v>45256</v>
       </c>
       <c r="B788" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.2">
@@ -6830,7 +6828,7 @@
         <v>45262</v>
       </c>
       <c r="B794" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.2">
@@ -6838,7 +6836,7 @@
         <v>45263</v>
       </c>
       <c r="B795" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.2">
@@ -6878,7 +6876,7 @@
         <v>45268</v>
       </c>
       <c r="B800" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.2">
@@ -6886,7 +6884,7 @@
         <v>45269</v>
       </c>
       <c r="B801" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.2">
@@ -6894,7 +6892,7 @@
         <v>45270</v>
       </c>
       <c r="B802" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.2">
@@ -6942,7 +6940,7 @@
         <v>45276</v>
       </c>
       <c r="B808" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.2">
@@ -6950,7 +6948,7 @@
         <v>45277</v>
       </c>
       <c r="B809" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.2">
@@ -6998,7 +6996,7 @@
         <v>45283</v>
       </c>
       <c r="B815" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.2">
@@ -7006,7 +7004,7 @@
         <v>45284</v>
       </c>
       <c r="B816" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.2">
@@ -7014,7 +7012,7 @@
         <v>45285</v>
       </c>
       <c r="B817" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.2">
@@ -7101,7 +7099,7 @@
         <v>45297</v>
       </c>
       <c r="B829" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.2">
@@ -7109,7 +7107,7 @@
         <v>45298</v>
       </c>
       <c r="B830" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.2">
@@ -7157,7 +7155,7 @@
         <v>45304</v>
       </c>
       <c r="B836" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.2">
@@ -7165,7 +7163,7 @@
         <v>45305</v>
       </c>
       <c r="B837" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.2">
@@ -7213,7 +7211,7 @@
         <v>45311</v>
       </c>
       <c r="B843" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.2">
@@ -7221,7 +7219,7 @@
         <v>45312</v>
       </c>
       <c r="B844" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.2">
@@ -7269,7 +7267,7 @@
         <v>45318</v>
       </c>
       <c r="B850" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.2">
@@ -7277,7 +7275,7 @@
         <v>45319</v>
       </c>
       <c r="B851" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.2">
@@ -7325,7 +7323,7 @@
         <v>45325</v>
       </c>
       <c r="B857" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.2">
@@ -7333,7 +7331,7 @@
         <v>45326</v>
       </c>
       <c r="B858" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.2">
@@ -7381,7 +7379,7 @@
         <v>45332</v>
       </c>
       <c r="B864" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.2">
@@ -7389,7 +7387,7 @@
         <v>45333</v>
       </c>
       <c r="B865" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.2">
@@ -7437,7 +7435,7 @@
         <v>45339</v>
       </c>
       <c r="B871" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.2">
@@ -7445,7 +7443,7 @@
         <v>45340</v>
       </c>
       <c r="B872" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.2">
@@ -7493,7 +7491,7 @@
         <v>45346</v>
       </c>
       <c r="B878" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.2">
@@ -7501,7 +7499,7 @@
         <v>45347</v>
       </c>
       <c r="B879" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.2">
@@ -7549,7 +7547,7 @@
         <v>45353</v>
       </c>
       <c r="B885" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.2">
@@ -7557,7 +7555,7 @@
         <v>45354</v>
       </c>
       <c r="B886" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.2">
@@ -7605,7 +7603,7 @@
         <v>45360</v>
       </c>
       <c r="B892" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.2">
@@ -7613,7 +7611,7 @@
         <v>45361</v>
       </c>
       <c r="B893" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.2">
@@ -7661,7 +7659,7 @@
         <v>45367</v>
       </c>
       <c r="B899" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.2">
@@ -7669,7 +7667,7 @@
         <v>45368</v>
       </c>
       <c r="B900" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.2">
@@ -7717,7 +7715,7 @@
         <v>45374</v>
       </c>
       <c r="B906" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.2">
@@ -7725,7 +7723,7 @@
         <v>45375</v>
       </c>
       <c r="B907" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.2">
@@ -7765,7 +7763,7 @@
         <v>45380</v>
       </c>
       <c r="B912" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.2">
@@ -7773,7 +7771,7 @@
         <v>45381</v>
       </c>
       <c r="B913" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.2">
@@ -7781,7 +7779,7 @@
         <v>45382</v>
       </c>
       <c r="B914" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.2">
@@ -7829,7 +7827,7 @@
         <v>45388</v>
       </c>
       <c r="B920" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.2">
@@ -7837,7 +7835,7 @@
         <v>45389</v>
       </c>
       <c r="B921" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.2">
@@ -7885,7 +7883,7 @@
         <v>45395</v>
       </c>
       <c r="B927" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.2">
@@ -7893,7 +7891,7 @@
         <v>45396</v>
       </c>
       <c r="B928" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.2">
@@ -7941,7 +7939,7 @@
         <v>45402</v>
       </c>
       <c r="B934" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.2">
@@ -7949,7 +7947,7 @@
         <v>45403</v>
       </c>
       <c r="B935" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.2">
@@ -7997,7 +7995,7 @@
         <v>45409</v>
       </c>
       <c r="B941" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.2">
@@ -8005,7 +8003,7 @@
         <v>45410</v>
       </c>
       <c r="B942" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.2">
@@ -8029,7 +8027,7 @@
         <v>45413</v>
       </c>
       <c r="B945" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.2">
@@ -8053,7 +8051,7 @@
         <v>45416</v>
       </c>
       <c r="B948" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.2">
@@ -8061,7 +8059,7 @@
         <v>45417</v>
       </c>
       <c r="B949" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.2">
@@ -8109,7 +8107,7 @@
         <v>45423</v>
       </c>
       <c r="B955" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.2">
@@ -8117,7 +8115,7 @@
         <v>45424</v>
       </c>
       <c r="B956" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.2">
@@ -8165,7 +8163,7 @@
         <v>45430</v>
       </c>
       <c r="B962" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.2">
@@ -8173,7 +8171,7 @@
         <v>45431</v>
       </c>
       <c r="B963" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.2">
@@ -8189,7 +8187,7 @@
         <v>45433</v>
       </c>
       <c r="B965" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.2">
@@ -8221,7 +8219,7 @@
         <v>45437</v>
       </c>
       <c r="B969" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.2">
@@ -8229,7 +8227,7 @@
         <v>45438</v>
       </c>
       <c r="B970" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.2">
@@ -8277,7 +8275,7 @@
         <v>45444</v>
       </c>
       <c r="B976" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.2">
@@ -8285,7 +8283,7 @@
         <v>45445</v>
       </c>
       <c r="B977" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.2">
@@ -8333,7 +8331,7 @@
         <v>45451</v>
       </c>
       <c r="B983" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.2">
@@ -8341,7 +8339,7 @@
         <v>45452</v>
       </c>
       <c r="B984" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.2">
@@ -8389,7 +8387,7 @@
         <v>45458</v>
       </c>
       <c r="B990" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.2">
@@ -8397,7 +8395,7 @@
         <v>45459</v>
       </c>
       <c r="B991" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.2">
@@ -8429,7 +8427,7 @@
         <v>45463</v>
       </c>
       <c r="B995" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.2">
@@ -8445,7 +8443,7 @@
         <v>45465</v>
       </c>
       <c r="B997" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.2">
@@ -8453,7 +8451,7 @@
         <v>45466</v>
       </c>
       <c r="B998" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.2">
@@ -8501,7 +8499,7 @@
         <v>45472</v>
       </c>
       <c r="B1004" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.2">
@@ -8509,7 +8507,7 @@
         <v>45473</v>
       </c>
       <c r="B1005" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.2">
@@ -8557,7 +8555,7 @@
         <v>45479</v>
       </c>
       <c r="B1011" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
@@ -8565,7 +8563,7 @@
         <v>45480</v>
       </c>
       <c r="B1012" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
@@ -8613,7 +8611,7 @@
         <v>45486</v>
       </c>
       <c r="B1018" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
@@ -8621,7 +8619,7 @@
         <v>45487</v>
       </c>
       <c r="B1019" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
@@ -8637,7 +8635,7 @@
         <v>45489</v>
       </c>
       <c r="B1021" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
@@ -8669,7 +8667,7 @@
         <v>45493</v>
       </c>
       <c r="B1025" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
@@ -8677,7 +8675,7 @@
         <v>45494</v>
       </c>
       <c r="B1026" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
@@ -8725,7 +8723,7 @@
         <v>45500</v>
       </c>
       <c r="B1032" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
@@ -8733,7 +8731,7 @@
         <v>45501</v>
       </c>
       <c r="B1033" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
@@ -8781,7 +8779,7 @@
         <v>45507</v>
       </c>
       <c r="B1039" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
@@ -8789,7 +8787,7 @@
         <v>45508</v>
       </c>
       <c r="B1040" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
@@ -8837,7 +8835,7 @@
         <v>45514</v>
       </c>
       <c r="B1046" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1047" spans="1:2" x14ac:dyDescent="0.2">
@@ -8845,7 +8843,7 @@
         <v>45515</v>
       </c>
       <c r="B1047" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1048" spans="1:2" x14ac:dyDescent="0.2">
@@ -8877,7 +8875,7 @@
         <v>45519</v>
       </c>
       <c r="B1051" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052" spans="1:2" x14ac:dyDescent="0.2">
@@ -8893,7 +8891,7 @@
         <v>45521</v>
       </c>
       <c r="B1053" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054" spans="1:2" x14ac:dyDescent="0.2">
@@ -8901,7 +8899,7 @@
         <v>45522</v>
       </c>
       <c r="B1054" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1055" spans="1:2" x14ac:dyDescent="0.2">
@@ -8949,7 +8947,7 @@
         <v>45528</v>
       </c>
       <c r="B1060" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1061" spans="1:2" x14ac:dyDescent="0.2">
@@ -8957,7 +8955,7 @@
         <v>45529</v>
       </c>
       <c r="B1061" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1062" spans="1:2" x14ac:dyDescent="0.2">
@@ -9005,7 +9003,7 @@
         <v>45535</v>
       </c>
       <c r="B1067" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1068" spans="1:2" x14ac:dyDescent="0.2">
@@ -9013,7 +9011,7 @@
         <v>45536</v>
       </c>
       <c r="B1068" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1069" spans="1:2" x14ac:dyDescent="0.2">
@@ -9061,7 +9059,7 @@
         <v>45542</v>
       </c>
       <c r="B1074" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1075" spans="1:2" x14ac:dyDescent="0.2">
@@ -9069,7 +9067,7 @@
         <v>45543</v>
       </c>
       <c r="B1075" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
@@ -9117,7 +9115,7 @@
         <v>45549</v>
       </c>
       <c r="B1081" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
@@ -9125,7 +9123,7 @@
         <v>45550</v>
       </c>
       <c r="B1082" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
@@ -9149,7 +9147,7 @@
         <v>45553</v>
       </c>
       <c r="B1085" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
@@ -9157,7 +9155,7 @@
         <v>45554</v>
       </c>
       <c r="B1086" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
@@ -9165,7 +9163,7 @@
         <v>45555</v>
       </c>
       <c r="B1087" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
@@ -9173,7 +9171,7 @@
         <v>45556</v>
       </c>
       <c r="B1088" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
@@ -9181,7 +9179,7 @@
         <v>45557</v>
       </c>
       <c r="B1089" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
@@ -9229,7 +9227,7 @@
         <v>45563</v>
       </c>
       <c r="B1095" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096" spans="1:2" x14ac:dyDescent="0.2">
@@ -9237,7 +9235,7 @@
         <v>45564</v>
       </c>
       <c r="B1096" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1097" spans="1:2" x14ac:dyDescent="0.2">
@@ -9285,7 +9283,7 @@
         <v>45570</v>
       </c>
       <c r="B1102" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1103" spans="1:2" x14ac:dyDescent="0.2">
@@ -9293,7 +9291,7 @@
         <v>45571</v>
       </c>
       <c r="B1103" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1104" spans="1:2" x14ac:dyDescent="0.2">
@@ -9341,7 +9339,7 @@
         <v>45577</v>
       </c>
       <c r="B1109" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1110" spans="1:2" x14ac:dyDescent="0.2">
@@ -9349,7 +9347,7 @@
         <v>45578</v>
       </c>
       <c r="B1110" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1111" spans="1:2" x14ac:dyDescent="0.2">
@@ -9397,7 +9395,7 @@
         <v>45584</v>
       </c>
       <c r="B1116" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1117" spans="1:2" x14ac:dyDescent="0.2">
@@ -9405,7 +9403,7 @@
         <v>45585</v>
       </c>
       <c r="B1117" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1118" spans="1:2" x14ac:dyDescent="0.2">
@@ -9453,7 +9451,7 @@
         <v>45591</v>
       </c>
       <c r="B1123" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1124" spans="1:2" x14ac:dyDescent="0.2">
@@ -9461,7 +9459,7 @@
         <v>45592</v>
       </c>
       <c r="B1124" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1125" spans="1:2" x14ac:dyDescent="0.2">
@@ -9493,7 +9491,7 @@
         <v>45596</v>
       </c>
       <c r="B1128" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1129" spans="1:2" x14ac:dyDescent="0.2">
@@ -9501,7 +9499,7 @@
         <v>45597</v>
       </c>
       <c r="B1129" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1130" spans="1:2" x14ac:dyDescent="0.2">
@@ -9509,7 +9507,7 @@
         <v>45598</v>
       </c>
       <c r="B1130" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1131" spans="1:2" x14ac:dyDescent="0.2">
@@ -9517,7 +9515,7 @@
         <v>45599</v>
       </c>
       <c r="B1131" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1132" spans="1:2" x14ac:dyDescent="0.2">
@@ -9565,7 +9563,7 @@
         <v>45605</v>
       </c>
       <c r="B1137" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1138" spans="1:2" x14ac:dyDescent="0.2">
@@ -9573,7 +9571,7 @@
         <v>45606</v>
       </c>
       <c r="B1138" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1139" spans="1:2" x14ac:dyDescent="0.2">
@@ -9621,7 +9619,7 @@
         <v>45612</v>
       </c>
       <c r="B1144" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1145" spans="1:2" x14ac:dyDescent="0.2">
@@ -9629,7 +9627,7 @@
         <v>45613</v>
       </c>
       <c r="B1145" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1146" spans="1:2" x14ac:dyDescent="0.2">
@@ -9677,7 +9675,7 @@
         <v>45619</v>
       </c>
       <c r="B1151" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.2">
@@ -9685,7 +9683,7 @@
         <v>45620</v>
       </c>
       <c r="B1152" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1153" spans="1:2" x14ac:dyDescent="0.2">
@@ -9733,7 +9731,7 @@
         <v>45626</v>
       </c>
       <c r="B1158" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1159" spans="1:2" x14ac:dyDescent="0.2">
@@ -9741,7 +9739,7 @@
         <v>45627</v>
       </c>
       <c r="B1159" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1160" spans="1:2" x14ac:dyDescent="0.2">
@@ -9789,7 +9787,7 @@
         <v>45633</v>
       </c>
       <c r="B1165" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1166" spans="1:2" x14ac:dyDescent="0.2">
@@ -9797,7 +9795,7 @@
         <v>45634</v>
       </c>
       <c r="B1166" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1167" spans="1:2" x14ac:dyDescent="0.2">
@@ -9845,7 +9843,7 @@
         <v>45640</v>
       </c>
       <c r="B1172" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1173" spans="1:2" x14ac:dyDescent="0.2">
@@ -9853,7 +9851,7 @@
         <v>45641</v>
       </c>
       <c r="B1173" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1174" spans="1:2" x14ac:dyDescent="0.2">
@@ -9901,7 +9899,7 @@
         <v>45647</v>
       </c>
       <c r="B1179" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1180" spans="1:2" x14ac:dyDescent="0.2">
@@ -9909,7 +9907,7 @@
         <v>45648</v>
       </c>
       <c r="B1180" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1181" spans="1:2" x14ac:dyDescent="0.2">
@@ -9933,7 +9931,7 @@
         <v>45651</v>
       </c>
       <c r="B1183" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1184" spans="1:2" x14ac:dyDescent="0.2">
@@ -9957,7 +9955,7 @@
         <v>45654</v>
       </c>
       <c r="B1186" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1187" spans="1:2" x14ac:dyDescent="0.2">
@@ -9965,7 +9963,7 @@
         <v>45655</v>
       </c>
       <c r="B1187" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.2">
@@ -10002,7 +10000,7 @@
         <v>45661</v>
       </c>
       <c r="B1192" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.2">
@@ -10010,7 +10008,7 @@
         <v>45662</v>
       </c>
       <c r="B1193" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1194" spans="1:2" x14ac:dyDescent="0.2">
@@ -10058,7 +10056,7 @@
         <v>45668</v>
       </c>
       <c r="B1199" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1200" spans="1:2" x14ac:dyDescent="0.2">
@@ -10066,7 +10064,7 @@
         <v>45669</v>
       </c>
       <c r="B1200" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1201" spans="1:2" x14ac:dyDescent="0.2">
@@ -10114,7 +10112,7 @@
         <v>45675</v>
       </c>
       <c r="B1206" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1207" spans="1:2" x14ac:dyDescent="0.2">
@@ -10122,7 +10120,7 @@
         <v>45676</v>
       </c>
       <c r="B1207" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1208" spans="1:2" x14ac:dyDescent="0.2">
@@ -10170,7 +10168,7 @@
         <v>45682</v>
       </c>
       <c r="B1213" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.2">
@@ -10178,7 +10176,7 @@
         <v>45683</v>
       </c>
       <c r="B1214" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1215" spans="1:2" x14ac:dyDescent="0.2">
@@ -10226,7 +10224,7 @@
         <v>45689</v>
       </c>
       <c r="B1220" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
@@ -10234,7 +10232,7 @@
         <v>45690</v>
       </c>
       <c r="B1221" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
@@ -10282,7 +10280,7 @@
         <v>45696</v>
       </c>
       <c r="B1227" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
@@ -10290,7 +10288,7 @@
         <v>45697</v>
       </c>
       <c r="B1228" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
@@ -10338,7 +10336,7 @@
         <v>45703</v>
       </c>
       <c r="B1234" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1235" spans="1:2" x14ac:dyDescent="0.2">
@@ -10346,7 +10344,7 @@
         <v>45704</v>
       </c>
       <c r="B1235" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1236" spans="1:2" x14ac:dyDescent="0.2">
@@ -10394,7 +10392,7 @@
         <v>45710</v>
       </c>
       <c r="B1241" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.2">
@@ -10402,7 +10400,7 @@
         <v>45711</v>
       </c>
       <c r="B1242" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
@@ -10450,7 +10448,7 @@
         <v>45717</v>
       </c>
       <c r="B1248" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1249" spans="1:2" x14ac:dyDescent="0.2">
@@ -10458,7 +10456,7 @@
         <v>45718</v>
       </c>
       <c r="B1249" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1250" spans="1:2" x14ac:dyDescent="0.2">
@@ -10506,7 +10504,7 @@
         <v>45724</v>
       </c>
       <c r="B1255" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1256" spans="1:2" x14ac:dyDescent="0.2">
@@ -10514,7 +10512,7 @@
         <v>45725</v>
       </c>
       <c r="B1256" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.2">
@@ -10562,7 +10560,7 @@
         <v>45731</v>
       </c>
       <c r="B1262" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.2">
@@ -10570,7 +10568,7 @@
         <v>45732</v>
       </c>
       <c r="B1263" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.2">
@@ -10618,7 +10616,7 @@
         <v>45738</v>
       </c>
       <c r="B1269" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1270" spans="1:2" x14ac:dyDescent="0.2">
@@ -10626,7 +10624,7 @@
         <v>45739</v>
       </c>
       <c r="B1270" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1271" spans="1:2" x14ac:dyDescent="0.2">
@@ -10674,7 +10672,7 @@
         <v>45745</v>
       </c>
       <c r="B1276" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1277" spans="1:2" x14ac:dyDescent="0.2">
@@ -10682,7 +10680,7 @@
         <v>45746</v>
       </c>
       <c r="B1277" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1278" spans="1:2" x14ac:dyDescent="0.2">
@@ -10730,7 +10728,7 @@
         <v>45752</v>
       </c>
       <c r="B1283" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1284" spans="1:2" x14ac:dyDescent="0.2">
@@ -10738,7 +10736,7 @@
         <v>45753</v>
       </c>
       <c r="B1284" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1285" spans="1:2" x14ac:dyDescent="0.2">
@@ -10786,7 +10784,7 @@
         <v>45759</v>
       </c>
       <c r="B1290" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.2">
@@ -10794,7 +10792,7 @@
         <v>45760</v>
       </c>
       <c r="B1291" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.2">
@@ -10834,7 +10832,7 @@
         <v>45765</v>
       </c>
       <c r="B1296" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.2">
@@ -10842,7 +10840,7 @@
         <v>45766</v>
       </c>
       <c r="B1297" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.2">
@@ -10850,7 +10848,7 @@
         <v>45767</v>
       </c>
       <c r="B1298" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1299" spans="1:2" x14ac:dyDescent="0.2">
@@ -10898,7 +10896,7 @@
         <v>45773</v>
       </c>
       <c r="B1304" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1305" spans="1:2" x14ac:dyDescent="0.2">
@@ -10906,7 +10904,7 @@
         <v>45774</v>
       </c>
       <c r="B1305" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.2">
@@ -10938,7 +10936,7 @@
         <v>45778</v>
       </c>
       <c r="B1309" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1310" spans="1:2" x14ac:dyDescent="0.2">
@@ -10954,7 +10952,7 @@
         <v>45780</v>
       </c>
       <c r="B1311" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1312" spans="1:2" x14ac:dyDescent="0.2">
@@ -10962,7 +10960,7 @@
         <v>45781</v>
       </c>
       <c r="B1312" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1313" spans="1:2" x14ac:dyDescent="0.2">
@@ -11010,7 +11008,7 @@
         <v>45787</v>
       </c>
       <c r="B1318" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1319" spans="1:2" x14ac:dyDescent="0.2">
@@ -11018,7 +11016,7 @@
         <v>45788</v>
       </c>
       <c r="B1319" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1320" spans="1:2" x14ac:dyDescent="0.2">
@@ -11066,7 +11064,7 @@
         <v>45794</v>
       </c>
       <c r="B1325" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.2">
@@ -11074,7 +11072,7 @@
         <v>45795</v>
       </c>
       <c r="B1326" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1327" spans="1:2" x14ac:dyDescent="0.2">
@@ -11098,7 +11096,7 @@
         <v>45798</v>
       </c>
       <c r="B1329" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.2">
@@ -11122,7 +11120,7 @@
         <v>45801</v>
       </c>
       <c r="B1332" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.2">
@@ -11130,7 +11128,7 @@
         <v>45802</v>
       </c>
       <c r="B1333" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.2">
@@ -11178,7 +11176,7 @@
         <v>45808</v>
       </c>
       <c r="B1339" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.2">
@@ -11186,7 +11184,7 @@
         <v>45809</v>
       </c>
       <c r="B1340" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.2">
@@ -11234,7 +11232,7 @@
         <v>45815</v>
       </c>
       <c r="B1346" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1347" spans="1:2" x14ac:dyDescent="0.2">
@@ -11242,7 +11240,7 @@
         <v>45816</v>
       </c>
       <c r="B1347" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1348" spans="1:2" x14ac:dyDescent="0.2">
@@ -11290,7 +11288,7 @@
         <v>45822</v>
       </c>
       <c r="B1353" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1354" spans="1:2" x14ac:dyDescent="0.2">
@@ -11298,7 +11296,7 @@
         <v>45823</v>
       </c>
       <c r="B1354" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.2">
@@ -11338,7 +11336,7 @@
         <v>45828</v>
       </c>
       <c r="B1359" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1360" spans="1:2" x14ac:dyDescent="0.2">
@@ -11346,7 +11344,7 @@
         <v>45829</v>
       </c>
       <c r="B1360" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1361" spans="1:2" x14ac:dyDescent="0.2">
@@ -11354,7 +11352,7 @@
         <v>45830</v>
       </c>
       <c r="B1361" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1362" spans="1:2" x14ac:dyDescent="0.2">
@@ -11402,7 +11400,7 @@
         <v>45836</v>
       </c>
       <c r="B1367" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1368" spans="1:2" x14ac:dyDescent="0.2">
@@ -11410,7 +11408,7 @@
         <v>45837</v>
       </c>
       <c r="B1368" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1369" spans="1:2" x14ac:dyDescent="0.2">
@@ -11458,7 +11456,7 @@
         <v>45843</v>
       </c>
       <c r="B1374" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1375" spans="1:2" x14ac:dyDescent="0.2">
@@ -11466,7 +11464,7 @@
         <v>45844</v>
       </c>
       <c r="B1375" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1376" spans="1:2" x14ac:dyDescent="0.2">
@@ -11514,7 +11512,7 @@
         <v>45850</v>
       </c>
       <c r="B1381" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1382" spans="1:2" x14ac:dyDescent="0.2">
@@ -11522,7 +11520,7 @@
         <v>45851</v>
       </c>
       <c r="B1382" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1383" spans="1:2" x14ac:dyDescent="0.2">
@@ -11546,7 +11544,7 @@
         <v>45854</v>
       </c>
       <c r="B1385" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1386" spans="1:2" x14ac:dyDescent="0.2">
@@ -11570,7 +11568,7 @@
         <v>45857</v>
       </c>
       <c r="B1388" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1389" spans="1:2" x14ac:dyDescent="0.2">
@@ -11578,7 +11576,7 @@
         <v>45858</v>
       </c>
       <c r="B1389" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1390" spans="1:2" x14ac:dyDescent="0.2">
@@ -11626,7 +11624,7 @@
         <v>45864</v>
       </c>
       <c r="B1395" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1396" spans="1:2" x14ac:dyDescent="0.2">
@@ -11634,7 +11632,7 @@
         <v>45865</v>
       </c>
       <c r="B1396" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1397" spans="1:2" x14ac:dyDescent="0.2">
@@ -11682,7 +11680,7 @@
         <v>45871</v>
       </c>
       <c r="B1402" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1403" spans="1:2" x14ac:dyDescent="0.2">
@@ -11690,7 +11688,7 @@
         <v>45872</v>
       </c>
       <c r="B1403" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1404" spans="1:2" x14ac:dyDescent="0.2">
@@ -11738,7 +11736,7 @@
         <v>45878</v>
       </c>
       <c r="B1409" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1410" spans="1:2" x14ac:dyDescent="0.2">
@@ -11746,7 +11744,7 @@
         <v>45879</v>
       </c>
       <c r="B1410" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1411" spans="1:2" x14ac:dyDescent="0.2">
@@ -11786,7 +11784,7 @@
         <v>45884</v>
       </c>
       <c r="B1415" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1416" spans="1:2" x14ac:dyDescent="0.2">
@@ -11794,7 +11792,7 @@
         <v>45885</v>
       </c>
       <c r="B1416" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1417" spans="1:2" x14ac:dyDescent="0.2">
@@ -11802,7 +11800,7 @@
         <v>45886</v>
       </c>
       <c r="B1417" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1418" spans="1:2" x14ac:dyDescent="0.2">
@@ -11850,7 +11848,7 @@
         <v>45892</v>
       </c>
       <c r="B1423" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1424" spans="1:2" x14ac:dyDescent="0.2">
@@ -11858,7 +11856,7 @@
         <v>45893</v>
       </c>
       <c r="B1424" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1425" spans="1:2" x14ac:dyDescent="0.2">
@@ -11906,7 +11904,7 @@
         <v>45899</v>
       </c>
       <c r="B1430" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1431" spans="1:2" x14ac:dyDescent="0.2">
@@ -11914,7 +11912,7 @@
         <v>45900</v>
       </c>
       <c r="B1431" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1432" spans="1:2" x14ac:dyDescent="0.2">
@@ -11962,7 +11960,7 @@
         <v>45906</v>
       </c>
       <c r="B1437" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1438" spans="1:2" x14ac:dyDescent="0.2">
@@ -11970,7 +11968,7 @@
         <v>45907</v>
       </c>
       <c r="B1438" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1439" spans="1:2" x14ac:dyDescent="0.2">
@@ -12018,7 +12016,7 @@
         <v>45913</v>
       </c>
       <c r="B1444" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1445" spans="1:2" x14ac:dyDescent="0.2">
@@ -12026,7 +12024,7 @@
         <v>45914</v>
       </c>
       <c r="B1445" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1446" spans="1:2" x14ac:dyDescent="0.2">
@@ -12058,7 +12056,7 @@
         <v>45918</v>
       </c>
       <c r="B1449" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1450" spans="1:2" x14ac:dyDescent="0.2">
@@ -12066,7 +12064,7 @@
         <v>45919</v>
       </c>
       <c r="B1450" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1451" spans="1:2" x14ac:dyDescent="0.2">
@@ -12074,7 +12072,7 @@
         <v>45920</v>
       </c>
       <c r="B1451" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1452" spans="1:2" x14ac:dyDescent="0.2">
@@ -12082,7 +12080,7 @@
         <v>45921</v>
       </c>
       <c r="B1452" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1453" spans="1:2" x14ac:dyDescent="0.2">
@@ -12130,7 +12128,7 @@
         <v>45927</v>
       </c>
       <c r="B1458" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1459" spans="1:2" x14ac:dyDescent="0.2">
@@ -12138,7 +12136,7 @@
         <v>45928</v>
       </c>
       <c r="B1459" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1460" spans="1:2" x14ac:dyDescent="0.2">
